--- a/biology/Botanique/Grevillea_alpina/Grevillea_alpina.xlsx
+++ b/biology/Botanique/Grevillea_alpina/Grevillea_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grevillea alpina est une espèce végétale de la famille des Proteaceae.
 Cette plante d'apparence variable pousse trouve dans les forêts et bois secs le l'État de Victoria et des états voisins, en Australie.
